--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1002030.466784459</v>
+        <v>969606.7465203351</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.95395642</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8730793.489920923</v>
+        <v>8730793.489920922</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.925119512544452</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.34508049624301</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>197.4083929851558</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.313929187764</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>83.59830597394826</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>259.768105730554</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>24.68775325661912</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.938790180569</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>81.1220065286378</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.13267830032984</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3197306044669</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>146.4340874029168</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>300.8638984122747</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,10 +1701,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755695</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1786,7 +1786,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.9978294690248</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>180.9197253916939</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>300.4813473882231</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1938,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>11.68201068962136</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>26.94362918249699</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>18.27382026581084</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883158</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>6.621576176023814</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.67884460201125</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>291.2607927468918</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>43.31785343914003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.9895902233674</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.6132658791693</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>60.38235645081252</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>9.461970681989238</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>149.5199059873348</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>28.58908008912966</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>67.17737911999787</v>
+        <v>155.211488636581</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>26.94389492651069</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>81.1220065286378</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3165,7 +3165,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494254</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.3178534391397</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228949</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.56386682245563</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>223.8243835520299</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>1.178315471687968</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>219.3567277916629</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3566,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>218.3734398702023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,19 +3746,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>196.4332222522218</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>55.84003136202615</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.31590541686246</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>323.9918595228958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>117.604305759264</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913925</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.7498680634316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2478.514423990286</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.603677789272</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C5" t="n">
-        <v>534.603677789272</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>534.603677789272</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,13 +4562,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2488.267947823702</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2269.633280795765</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2015.871495433856</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1684.808608090285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1684.808608090285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1311.342849829206</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>921.2035178533938</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>138.3857151273829</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.550419308994</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="C8" t="n">
-        <v>1503.550419308994</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D8" t="n">
-        <v>1145.284720702244</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E8" t="n">
-        <v>1145.284720702244</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F8" t="n">
-        <v>734.2988159126362</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>316.3350078108231</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.211966516587</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.211966516587</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2453.57729948865</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2453.57729948865</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2122.514412145079</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>2122.514412145079</v>
       </c>
       <c r="X8" t="n">
-        <v>1893.689751284806</v>
+        <v>1749.048653883999</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.550419308994</v>
+        <v>1749.048653883999</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C11" t="n">
-        <v>412.208680427115</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036446</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>1165.659149439633</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>754.673244650025</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>336.7094365482119</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5057,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="12">
@@ -5109,25 +5109,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="F13" t="n">
-        <v>550.5654064942405</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1993.546461473041</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C14" t="n">
-        <v>1993.546461473041</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D14" t="n">
-        <v>1635.28076286629</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>1249.492510268046</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>838.5066054784384</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
         <v>534.603677789272</v>
@@ -5273,16 +5273,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,34 +5294,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y14" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
         <v>665.1105362747051</v>
@@ -5346,22 +5346,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
         <v>1237.953133915166</v>
@@ -5373,25 +5373,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5400,7 +5400,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064347</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1159.40775858698</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C17" t="n">
-        <v>976.6605612216329</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D17" t="n">
-        <v>618.3948626148824</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="E17" t="n">
-        <v>618.3948626148824</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K17" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>1936.146930626914</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W17" t="n">
-        <v>1936.146930626914</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X17" t="n">
-        <v>1936.146930626914</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y17" t="n">
-        <v>1546.007598651102</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5637,7 +5637,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>502.0405502269999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>502.0405502269999</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>502.0405502269999</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>502.0405502269999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>502.0405502269999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>750.1002187247734</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C20" t="n">
-        <v>381.1377017843616</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D20" t="n">
-        <v>381.1377017843616</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E20" t="n">
         <v>381.1377017843616</v>
@@ -5744,58 +5744,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2669.933303965196</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2669.933303965196</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2451.298636937258</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2197.53685157535</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>1866.473964231779</v>
+        <v>2623.661997239816</v>
       </c>
       <c r="W20" t="n">
-        <v>1513.705308961665</v>
+        <v>2270.893341969701</v>
       </c>
       <c r="X20" t="n">
-        <v>1140.239550700585</v>
+        <v>2270.893341969701</v>
       </c>
       <c r="Y20" t="n">
-        <v>750.1002187247734</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5844,28 +5844,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2685.352278288919</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2471.063855107082</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>625.3727659270879</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>625.3727659270879</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D23" t="n">
-        <v>625.3727659270879</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E23" t="n">
-        <v>625.3727659270879</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1015.5120979029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y23" t="n">
-        <v>625.3727659270879</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W25" t="n">
-        <v>684.3735766921516</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X25" t="n">
-        <v>456.3840257941342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2307.009759042411</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="C26" t="n">
-        <v>1938.047242101999</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D26" t="n">
-        <v>1579.781543495249</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E26" t="n">
-        <v>1193.993290897005</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F26" t="n">
-        <v>783.0073861073972</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>365.0435780055841</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6251,25 +6251,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2592.489226493809</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2373.854559465872</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2373.854559465872</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2373.854559465872</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2021.085904195758</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018223</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.009759042411</v>
+        <v>1647.620145934678</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6348,7 +6348,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036446</v>
@@ -6406,28 +6406,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>63.50052796378793</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1595.875667274027</v>
+        <v>932.2014054355416</v>
       </c>
       <c r="C29" t="n">
-        <v>1595.875667274027</v>
+        <v>563.2388884951299</v>
       </c>
       <c r="D29" t="n">
-        <v>1595.875667274027</v>
+        <v>204.9731898883794</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>204.9731898883794</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>204.9731898883794</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>204.9731898883794</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>204.9731898883794</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2613.242542872827</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2613.242542872827</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U29" t="n">
-        <v>2359.480757510918</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2359.480757510918</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W29" t="n">
-        <v>2359.480757510918</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X29" t="n">
-        <v>1986.014999249838</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.875667274027</v>
+        <v>932.2014054355416</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>660.2730457013859</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W31" t="n">
-        <v>370.8558756644252</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1194.175505447095</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C32" t="n">
-        <v>825.2129885066831</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D32" t="n">
-        <v>466.9472898999326</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E32" t="n">
-        <v>81.15903730168839</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036471</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.775345511217</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6783,10 +6783,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2066.718496146436</v>
       </c>
       <c r="C34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>2539.444886308983</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.136698977585</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2469.159540120206</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2248.366960976676</v>
       </c>
     </row>
     <row r="35">
@@ -6920,28 +6920,28 @@
         <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785527</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889451</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6977,10 +6977,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757142</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.54400078133</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632152</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632152</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632152</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632152</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2243.755667775682</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1364.743608328862</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C38" t="n">
-        <v>1364.743608328862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D38" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7184,40 +7184,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304456</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2048.575150942547</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V38" t="n">
-        <v>1717.512263598976</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W38" t="n">
-        <v>1364.743608328862</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X38" t="n">
-        <v>1364.743608328862</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1364.743608328862</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7263,13 +7263,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>571.3497027553424</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2476.569858826099</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>2107.607341885688</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2225.068338306413</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>1894.005450962842</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>1541.236795692728</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018223</v>
+        <v>1167.771037431648</v>
       </c>
       <c r="Y41" t="n">
-        <v>2697.149091018223</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761946</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5443364482877</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>227.427697035952</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>79.51460345355886</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>79.51460345355886</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>79.51460345355886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>79.51460345355886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064343</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082163</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7667,31 +7667,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7731,37 +7731,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.9958041606071</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0596212327002</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064343</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y46" t="n">
-        <v>554.6442689908469</v>
+        <v>2248.366960976675</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>275.0442842992663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.8087221509361</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,28 +22705,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>125.6900249618413</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22781,22 +22781,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>167.8644987858518</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>22.10178362120752</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,16 +22987,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6835682680295</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23027,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>64.15466703380315</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>29.7906493181926</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23185,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>43.98398258378819</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>135.32631382902</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2883697226014</v>
       </c>
       <c r="G13" t="n">
-        <v>11.990071654584</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>218.8388043680907</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>112.9202716085203</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890122</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>3.147709480994109</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>184.3531663793137</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>23.44142537613402</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>213.3530947684629</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27.5347733923147</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>309.478438204324</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>134.9863473781466</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>78.47030793157728</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24421,16 +24421,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>243.205144897451</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24452,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>15.93318254098978</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>70.8024469298022</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>86.05160619575665</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24646,19 +24646,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>242.6756726418388</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,25 +24680,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>2.411410257526455</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24725,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>145.8266327198419</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24895,13 +24895,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>184.9602642038301</v>
+        <v>96.92615468724699</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,10 +24923,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>379.9321508152008</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24965,7 +24965,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>93.29370628033374</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24974,7 +24974,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25123,13 +25123,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>56.0183762878722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049790008</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>82.85718120047562</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25363,7 +25363,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>1.885271837007224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>353.504726148995</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>31.86743971662639</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25606,7 +25606,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>96.92615468724699</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>164.3604017932783</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>54.79094525606752</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>111.4067897366017</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>109.6497163754758</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,16 +25868,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>30.69118209778719</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,19 +25919,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>268.6336328967896</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9289676594886</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.8347852886632</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="C2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="C2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="E2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149697</v>
@@ -26347,10 +26347,10 @@
         <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.97951497</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149696</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>14353.59214796874</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>14353.59214796874</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-412485.569910953</v>
+        <v>-416360.9053326476</v>
       </c>
       <c r="C6" t="n">
-        <v>177482.3093035917</v>
+        <v>173606.9738818971</v>
       </c>
       <c r="D6" t="n">
-        <v>177482.3093035917</v>
+        <v>173606.973881897</v>
       </c>
       <c r="E6" t="n">
-        <v>211109.9093035914</v>
+        <v>207234.573881897</v>
       </c>
       <c r="F6" t="n">
-        <v>211109.9093035917</v>
+        <v>207234.573881897</v>
       </c>
       <c r="G6" t="n">
-        <v>211109.9093035915</v>
+        <v>207234.573881897</v>
       </c>
       <c r="H6" t="n">
-        <v>211109.9093035916</v>
+        <v>207234.573881897</v>
       </c>
       <c r="I6" t="n">
-        <v>211109.9093035916</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="J6" t="n">
-        <v>34686.6901109985</v>
+        <v>30811.35468930396</v>
       </c>
       <c r="K6" t="n">
-        <v>211109.9093035916</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="L6" t="n">
-        <v>211109.9093035915</v>
+        <v>207234.573881897</v>
       </c>
       <c r="M6" t="n">
-        <v>211109.9093035916</v>
+        <v>207234.573881897</v>
       </c>
       <c r="N6" t="n">
-        <v>211109.9093035916</v>
+        <v>207234.573881897</v>
       </c>
       <c r="O6" t="n">
-        <v>211109.9093035918</v>
+        <v>207234.573881897</v>
       </c>
       <c r="P6" t="n">
-        <v>211109.9093035914</v>
+        <v>207234.5738818969</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,25 +31932,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32166,28 +32166,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,43 +32230,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,25 +32406,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34781,22 +34781,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35817,10 +35817,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36054,10 +36054,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,13 +36446,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37549,7 +37549,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492236</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38111,7 +38111,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969606.7465203351</v>
+        <v>998451.0572750624</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8730793.489920922</v>
+        <v>8730793.489920923</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>5.810962438350843</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.1332020905461</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>197.4083929851558</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.3484149000634</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>200.1113433208316</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>24.68775325661912</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>279.938790180569</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.13267830032984</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>146.4340874029168</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1768,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.38235645081242</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.9978294690248</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>300.4813473882231</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>348.1634516111781</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>18.27382026581084</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>29.16584928708759</v>
       </c>
       <c r="F22" t="n">
-        <v>6.621576176023814</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>17.23430169187254</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.11714581632465</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.6132658791693</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>60.38235645081252</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>61.28737103419895</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>149.5199059873348</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>155.211488636581</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>95.22479708370919</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.1220065286378</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.3178534391397</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.56386682245563</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>34.1005047385018</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3567277916629</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>43.99240337009249</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365804</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>196.4332222522218</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>334.5817096732201</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>55.84003136202615</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>117.604305759264</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.447402037877</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.181703431127</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E2" t="n">
-        <v>807.3934508328825</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F2" t="n">
-        <v>396.407546043275</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4346,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1949.568281034342</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2307.009759042411</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>847.8447724926955</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>489.579073885945</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1603.407129497229</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1362.448813819877</v>
+        <v>1731.411330760289</v>
       </c>
       <c r="C8" t="n">
         <v>1362.448813819877</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2672.211966516587</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2672.211966516587</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2453.57729948865</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2453.57729948865</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2122.514412145079</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2122.514412145079</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.048653883999</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.048653883999</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978288</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.447402037877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D11" t="n">
-        <v>1551.447402037877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
-        <v>1165.659149439633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>754.673244650025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>336.7094365482119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.00975904241</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
         <v>713.8062203571349</v>
@@ -5130,37 +5132,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y13" t="n">
-        <v>579.9823256406182</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2255.520561484594</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>2642.120401548716</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="15">
@@ -5358,40 +5360,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>517.0200655508536</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E16" t="n">
         <v>517.0200655508536</v>
@@ -5461,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1238.153685885794</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C17" t="n">
-        <v>869.1911689453821</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>510.9254703386316</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>510.9254703386316</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>510.9254703386316</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>510.9254703386316</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>2388.358616186807</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.358616186807</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.892857925727</v>
+        <v>1189.240841861987</v>
       </c>
       <c r="Y17" t="n">
-        <v>1624.753525949915</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5698,13 +5700,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
         <v>343.360151857325</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1494.154169929768</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C20" t="n">
-        <v>1125.191652989356</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D20" t="n">
-        <v>766.9259543826058</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2623.661997239816</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2270.893341969701</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
-        <v>2270.893341969701</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1880.75400999389</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5850,22 +5852,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761945</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C22" t="n">
-        <v>377.5443364482876</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="D22" t="n">
-        <v>377.5443364482876</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="E22" t="n">
-        <v>229.6312428658945</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037877</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>1286.089332857375</v>
       </c>
       <c r="E23" t="n">
-        <v>807.3934508328825</v>
+        <v>900.3010802591311</v>
       </c>
       <c r="F23" t="n">
-        <v>396.407546043275</v>
+        <v>489.3151754695236</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>71.35136736771045</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6023,16 +6025,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6066,43 +6068,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1647.620145934678</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.657628994267</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D26" t="n">
-        <v>920.3919303875161</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E26" t="n">
-        <v>534.603677789272</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6251,25 +6253,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2592.489226493809</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2373.854559465872</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2373.854559465872</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2373.854559465872</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2021.085904195758</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>1647.620145934678</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y26" t="n">
-        <v>1647.620145934678</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036446</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940986</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>517.0200655508536</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>517.0200655508536</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>932.2014054355416</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C29" t="n">
-        <v>563.2388884951299</v>
+        <v>1270.889273203047</v>
       </c>
       <c r="D29" t="n">
-        <v>204.9731898883794</v>
+        <v>912.6235745962961</v>
       </c>
       <c r="E29" t="n">
-        <v>204.9731898883794</v>
+        <v>526.8353219980518</v>
       </c>
       <c r="F29" t="n">
-        <v>204.9731898883794</v>
+        <v>115.8494172084442</v>
       </c>
       <c r="G29" t="n">
-        <v>204.9731898883794</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>204.9731898883794</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
@@ -6467,7 +6469,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6490,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>1695.806495672433</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>1322.340737411353</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y29" t="n">
-        <v>932.2014054355416</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>571.3497027553424</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>781.1711973675267</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C32" t="n">
-        <v>412.208680427115</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036446</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036446</v>
+        <v>477.32436550528</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>477.32436550528</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2284.144782938654</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>1931.37612766854</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X32" t="n">
-        <v>1557.91036940746</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y32" t="n">
-        <v>1167.771037431648</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2066.718496146436</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2469.159540120206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2248.366960976676</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6938,10 +6940,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -7014,16 +7016,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="D37" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="E37" t="n">
-        <v>580.2158906240411</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="F37" t="n">
-        <v>517.0200655508536</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G37" t="n">
-        <v>348.0202652891861</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2662.704136736907</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2662.704136736907</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2435.395949405509</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2435.395949405509</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.711461199623</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.9054987607761</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036445</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036445</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7202,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1573.11042906179</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1199.64467080071</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>809.505338824898</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
+        <v>53.94298182036423</v>
+      </c>
+      <c r="J39" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J39" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7272,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>2067.399859713054</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>2067.399859713054</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>2067.399859713054</v>
       </c>
       <c r="E40" t="n">
         <v>2022.963088632153</v>
@@ -7360,22 +7362,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083244</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>2249.048324543294</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.1711973675267</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C41" t="n">
-        <v>412.2086804271149</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2225.068338306413</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>1894.005450962842</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1541.236795692728</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X41" t="n">
-        <v>1167.771037431648</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y41" t="n">
-        <v>1167.771037431648</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7481,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7606,13 +7608,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X43" t="n">
-        <v>500.1394333084169</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y43" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1199.13500546934</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C44" t="n">
-        <v>830.1724885289282</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D44" t="n">
-        <v>471.9067899221776</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>1704.527073573122</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1585.734845533462</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2066.718496146435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,7 +9008,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22556,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -22607,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>363.9201382401182</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,19 +22707,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22726,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>7.012336859472782</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22765,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>167.8644987858518</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.5819551721984</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>182.622498342649</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.7906493181926</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>43.98398258378819</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>128.2883697226014</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>218.8388043680907</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.05160619575676</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,7 +23703,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>3.147709480994109</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23.44142537613402</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>21.56764906729092</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24026,13 +24028,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>309.478438204324</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>117.2681133594816</v>
       </c>
       <c r="F22" t="n">
-        <v>138.7994718469074</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>306.6884710724846</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24263,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24421,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>398.6670242044704</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8024469298022</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>86.05160619575665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24658,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>352.496798986596</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>2.411410257526455</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24895,13 +24897,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>96.92615468724699</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>318.5593729370858</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24965,7 +24967,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>93.29370628033374</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25126,22 +25128,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>82.85718120047562</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25357,19 +25359,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>112.5646872416561</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25442,16 +25444,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>31.86743971662639</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>102.4415592764767</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>54.79094525606752</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>14.65925904419294</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>111.4067897366017</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="44">
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>268.6336328967896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9289676594886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26077,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="H2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="H2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="J2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="K2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149695</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149696</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,7 +26487,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26497,7 +26499,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326476</v>
+        <v>-416360.9053326474</v>
       </c>
       <c r="C6" t="n">
         <v>173606.9738818971</v>
       </c>
       <c r="D6" t="n">
-        <v>173606.973881897</v>
+        <v>173606.9738818969</v>
       </c>
       <c r="E6" t="n">
-        <v>207234.573881897</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="F6" t="n">
         <v>207234.573881897</v>
       </c>
       <c r="G6" t="n">
+        <v>207234.5738818971</v>
+      </c>
+      <c r="H6" t="n">
+        <v>207234.5738818969</v>
+      </c>
+      <c r="I6" t="n">
         <v>207234.573881897</v>
       </c>
-      <c r="H6" t="n">
-        <v>207234.573881897</v>
-      </c>
-      <c r="I6" t="n">
-        <v>207234.5738818969</v>
-      </c>
       <c r="J6" t="n">
-        <v>30811.35468930396</v>
+        <v>30811.35468930388</v>
       </c>
       <c r="K6" t="n">
         <v>207234.5738818971</v>
       </c>
       <c r="L6" t="n">
-        <v>207234.573881897</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="M6" t="n">
-        <v>207234.573881897</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.573881897</v>
+        <v>207234.5738818968</v>
       </c>
       <c r="O6" t="n">
-        <v>207234.573881897</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="P6" t="n">
         <v>207234.5738818969</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26805,7 +26807,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26817,7 +26819,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N32" t="n">
         <v>478.8956552492236</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37561,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -38023,7 +38025,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38111,7 +38113,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>998451.0572750624</v>
+        <v>947131.3959306959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564203</v>
+        <v>189902.9539564208</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8730793.489920923</v>
+        <v>8730793.489920922</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>136.0696023912436</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>5.810962438350843</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.1332020905461</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>279.3484149000634</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>35.94037501241075</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3197306044668</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200.1113433208316</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>89.65996150537453</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>205.1332020905461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>227.2386140365967</v>
       </c>
     </row>
     <row r="12">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>339.0399185806814</v>
+        <v>230.0577499465238</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>60.38235645081242</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>92.32880980129335</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>348.1634516111781</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="S19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>24.59170878023815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>29.16584928708759</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>2.801690848279786</v>
       </c>
       <c r="H23" t="n">
-        <v>17.23430169187254</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>15.11714581632465</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>86.60556698725419</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>132.0147515468148</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>61.28737103419895</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>348.1637173551928</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>95.22479708370919</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9.764863467406823</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>52.31972060909187</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>33.77936158463009</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.1005047385018</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>334.58170967322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>80.07933883539245</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>43.99240337009249</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>55.66811582074969</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>334.5817096732201</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>192.5627265154904</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>305.8845841741733</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1166.959449965771</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C2" t="n">
-        <v>797.9969330253592</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D2" t="n">
-        <v>439.7312344186087</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2559.705048198784</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304456</v>
+        <v>2305.943262836876</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304456</v>
+        <v>1974.880375493305</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.568281034342</v>
+        <v>1622.111720223191</v>
       </c>
       <c r="X2" t="n">
-        <v>1943.698622005704</v>
+        <v>1248.645961962111</v>
       </c>
       <c r="Y2" t="n">
-        <v>1553.559290029893</v>
+        <v>858.5066299862995</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,13 +4430,13 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>343.3601518573251</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1216.807289433107</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C5" t="n">
-        <v>847.8447724926955</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="D5" t="n">
-        <v>489.579073885945</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>90.24639092380966</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>90.24639092380966</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473041</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.546461473041</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497229</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="6">
@@ -4643,40 +4643,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1731.411330760289</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C8" t="n">
-        <v>1362.448813819877</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1004.183115213127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>618.3948626148824</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5099885583422</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5120,49 +5120,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810045</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9687959810045</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.409918978289</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="C14" t="n">
-        <v>1551.447402037877</v>
+        <v>1083.098704810766</v>
       </c>
       <c r="D14" t="n">
-        <v>1193.181703431127</v>
+        <v>1083.098704810766</v>
       </c>
       <c r="E14" t="n">
-        <v>807.3934508328825</v>
+        <v>697.3104522125213</v>
       </c>
       <c r="F14" t="n">
-        <v>396.407546043275</v>
+        <v>286.3245474229138</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5278,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>799.1015098861748</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C17" t="n">
-        <v>799.1015098861748</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="D17" t="n">
-        <v>799.1015098861748</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="E17" t="n">
-        <v>799.1015098861748</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>474.3991258260721</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>474.3991258260721</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>147.2044058620749</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,16 +5518,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X17" t="n">
-        <v>1189.240841861987</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y17" t="n">
-        <v>799.1015098861748</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="18">
@@ -5570,73 +5570,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5679,25 +5679,25 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="S19" t="n">
         <v>632.5337622027571</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.94416071721</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>546.4805193761946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>546.4805193761946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2013.317548404538</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C23" t="n">
-        <v>1644.355031464126</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D23" t="n">
-        <v>1286.089332857375</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E23" t="n">
-        <v>900.3010802591311</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="F23" t="n">
-        <v>489.3151754695236</v>
+        <v>56.77297257620262</v>
       </c>
       <c r="G23" t="n">
-        <v>71.35136736771045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6025,16 +6025,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>2013.317548404538</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>2013.317548404538</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6089,22 +6089,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X25" t="n">
-        <v>210.7222632714563</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1920.409918978289</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="C26" t="n">
-        <v>1551.447402037878</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D26" t="n">
-        <v>1193.181703431127</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E26" t="n">
-        <v>807.393450832883</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F26" t="n">
-        <v>396.4075460432754</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2609.668720324026</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018223</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.009759042411</v>
+        <v>1905.140074719376</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V28" t="n">
-        <v>2442.464602812336</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W28" t="n">
-        <v>2153.047432775375</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1639.851790143458</v>
+        <v>1924.457674141023</v>
       </c>
       <c r="C29" t="n">
-        <v>1270.889273203047</v>
+        <v>1555.495157200611</v>
       </c>
       <c r="D29" t="n">
-        <v>912.6235745962961</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>526.8353219980518</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>115.8494172084442</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>2013.317548404538</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X29" t="n">
-        <v>1639.851790143458</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y29" t="n">
-        <v>1639.851790143458</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018223</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>863.1126181035243</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C32" t="n">
-        <v>863.1126181035243</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>863.1126181035243</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>477.32436550528</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>477.32436550528</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y32" t="n">
-        <v>1249.712458167646</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6776,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>935.7408973472316</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>935.7408973472316</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>935.7408973472316</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2180.711461199623</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C37" t="n">
-        <v>2180.711461199623</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="D37" t="n">
-        <v>2180.711461199623</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="E37" t="n">
-        <v>2180.711461199623</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>2180.711461199623</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2662.704136736907</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2662.704136736907</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2435.395949405509</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2435.395949405509</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>2180.711461199623</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>2180.711461199623</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X37" t="n">
-        <v>2180.711461199623</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y37" t="n">
-        <v>2180.711461199623</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1188.678462110459</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>802.8902095122144</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>391.9043047226068</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2385.054692817035</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2385.054692817035</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2385.054692817035</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7265,31 +7265,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2067.399859713054</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C40" t="n">
-        <v>2067.399859713054</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D40" t="n">
-        <v>2067.399859713054</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>2469.840903686824</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="V40" t="n">
-        <v>2469.840903686824</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="W40" t="n">
-        <v>2469.840903686824</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X40" t="n">
-        <v>2469.840903686824</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y40" t="n">
-        <v>2249.048324543294</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1208.982837814967</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7414,10 +7414,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2359.18776811598</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1985.7220098549</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1595.582677879088</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7511,22 +7511,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W43" t="n">
-        <v>438.7118141694736</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X43" t="n">
-        <v>210.7222632714563</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>780.8811173708375</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>780.8811173708375</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733129</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>80.3787179664142</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>363.9201382401182</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>7.012336859472782</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>102.5819551721984</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.9909412324505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.99007165458411</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.622498342649</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>275.6129302656331</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>81.14867215143161</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>158.9993246194569</v>
       </c>
     </row>
     <row r="12">
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>74.74425144011354</v>
+        <v>183.7264200742712</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>86.05160619575676</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>59.6025064435679</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21.56764906729092</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>52.02592219651726</v>
       </c>
       <c r="S19" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>358.1421328832424</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>117.2681133594816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9824791725152</v>
       </c>
       <c r="H23" t="n">
-        <v>306.6884710724846</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24265,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822156</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.6670242044704</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>164.6186005210351</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822156</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>222.6682900738681</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>352.496798986596</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>17.10917441581478</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>318.5593729370858</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,13 +24976,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>136.6690991791623</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3958356744439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>329.6106494631699</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>112.6546010619391</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>112.5646872416561</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>136.3689815222654</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>102.4415592764767</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>230.6137584212281</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>14.65925904419294</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>93.96027182110058</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>100.9914615675382</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,7 +26079,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>274694.9795149699</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="D2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149698</v>
@@ -26328,34 +26328,34 @@
         <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="L2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="N2" t="n">
-        <v>274694.9795149695</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26487,31 +26487,31 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326474</v>
+        <v>-422429.3190784664</v>
       </c>
       <c r="C6" t="n">
-        <v>173606.9738818971</v>
+        <v>167538.560136078</v>
       </c>
       <c r="D6" t="n">
-        <v>173606.9738818969</v>
+        <v>167538.5601360778</v>
       </c>
       <c r="E6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="F6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="G6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="H6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="I6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="J6" t="n">
-        <v>30811.35468930388</v>
+        <v>24742.94094348486</v>
       </c>
       <c r="K6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="L6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="M6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.5738818968</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="O6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="P6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360778</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,31 +26807,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>130.3926104730631</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>130.3926104730631</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
